--- a/Luke-Excel-Course/2_Formulas_Functions/2_Functions_Intro.xlsx
+++ b/Luke-Excel-Course/2_Formulas_Functions/2_Functions_Intro.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28015"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Mac\Home\Developer\_Courses\Excel\Excel_Data_Analytics_Course\2_Formulas_Functions\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\D\Data Science Career\Data-Analyst\Luke-Excel-Course\2_Formulas_Functions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BF50AE8-6F59-4DF5-B44C-2445C4C088D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C184D25-C42B-4967-9046-D73062108FCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-42890" yWindow="-19270" windowWidth="18350" windowHeight="10350" xr2:uid="{8CC555B5-3E06-43B6-9E5B-C0A1D3498DA4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{8CC555B5-3E06-43B6-9E5B-C0A1D3498DA4}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="9" r:id="rId1"/>
@@ -22,30 +22,19 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
   <futureMetadata name="XLDAPR" count="1">
     <bk>
       <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+        <ext xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray" uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
           <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
         </ext>
       </extLst>
@@ -185,28 +174,30 @@
     <t>Formula</t>
   </si>
   <si>
+    <t>=B4 + "text"</t>
+  </si>
+  <si>
+    <t>=SQRT(-1)</t>
+  </si>
+  <si>
+    <t>=SUM(A1:A10 B1:B10)</t>
+  </si>
+  <si>
+    <t>=VLOOKUP("Value", A1:A10, 2, FALSE)</t>
+  </si>
+  <si>
+    <t>=COUNTT(A3:A9)</t>
+  </si>
+  <si>
+    <t>The formula refers to a cell that isn’t valid (usually deleted cell)</t>
+  </si>
+  <si>
+    <t>=#REF!</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
     <t>=1/0</t>
-  </si>
-  <si>
-    <t>=B4 + "text"</t>
-  </si>
-  <si>
-    <t>=#REF!</t>
-  </si>
-  <si>
-    <t>=SQRT(-1)</t>
-  </si>
-  <si>
-    <t>=SUM(A1:A10 B1:B10)</t>
-  </si>
-  <si>
-    <t>=VLOOKUP("Value", A1:A10, 2, FALSE)</t>
-  </si>
-  <si>
-    <t>=COUNTT(A3:A9)</t>
-  </si>
-  <si>
-    <t>The formula refers to a cell that isn’t valid (usually deleted cell)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -214,20 +205,20 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0.0%"/>
+    <numFmt numFmtId="176" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -235,7 +226,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -259,6 +250,13 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -617,7 +615,7 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -640,8 +638,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Percent" xfId="1" builtinId="5"/>
+    <cellStyle name="百分比" xfId="1" builtinId="5"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1000,36 +998,36 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8DE2224-2E95-4FCC-A032-AA541E0AE3D4}">
   <dimension ref="B1:S17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="R9" sqref="R9"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="P6" sqref="P6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.15625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="22.68359375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.41796875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="12.26171875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.578125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="10.578125" style="1" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="5.125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="22.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="12.25" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="10.625" style="1" hidden="1" customWidth="1"/>
     <col min="7" max="7" width="9" style="1" hidden="1" customWidth="1"/>
     <col min="8" max="9" width="11" style="1" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="17.26171875" style="1" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="14.26171875" style="1" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="10.15625" style="1" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="9" style="1" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="10.41796875" style="1" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="14.15625" style="1" customWidth="1"/>
-    <col min="16" max="16" width="11.83984375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="17.25" style="1" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="14.25" style="1" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="10.125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="9" style="1" customWidth="1"/>
+    <col min="14" max="14" width="10.375" style="1" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="14.125" style="1" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="11.875" style="1" customWidth="1"/>
     <col min="17" max="17" width="9" style="1"/>
     <col min="18" max="18" width="14" style="1" bestFit="1" customWidth="1"/>
     <col min="19" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:19" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="1" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G1" s="28"/>
     </row>
-    <row r="2" spans="2:19" s="8" customFormat="1" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="2" spans="2:19" s="8" customFormat="1" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>10</v>
       </c>
@@ -1080,7 +1078,7 @@
       </c>
       <c r="S2" s="1"/>
     </row>
-    <row r="3" spans="2:19" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="3" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="5" t="s">
         <v>0</v>
       </c>
@@ -1133,7 +1131,10 @@
         <f>L3*M3=1</f>
         <v>1</v>
       </c>
-      <c r="P3" s="22"/>
+      <c r="P3" s="22" t="b">
+        <f>AND(L3,M3)</f>
+        <v>1</v>
+      </c>
       <c r="R3" s="10" t="s">
         <v>22</v>
       </c>
@@ -1141,7 +1142,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="2:19" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="4" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="5" t="s">
         <v>1</v>
       </c>
@@ -1194,7 +1195,10 @@
         <f t="shared" ref="O4:O12" si="9">L4*M4=1</f>
         <v>0</v>
       </c>
-      <c r="P4" s="22"/>
+      <c r="P4" s="22" t="b">
+        <f t="shared" ref="P4:P11" si="10">AND(L4,M4)</f>
+        <v>0</v>
+      </c>
       <c r="R4" s="12" t="s">
         <v>23</v>
       </c>
@@ -1202,7 +1206,7 @@
         <v>90000</v>
       </c>
     </row>
-    <row r="5" spans="2:19" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="5" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="5" t="s">
         <v>2</v>
       </c>
@@ -1255,9 +1259,12 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="P5" s="22"/>
-    </row>
-    <row r="6" spans="2:19" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="P5" s="22" t="b">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -1310,9 +1317,12 @@
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="P6" s="22"/>
-    </row>
-    <row r="7" spans="2:19" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="P6" s="22" t="b">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="5" t="s">
         <v>4</v>
       </c>
@@ -1365,9 +1375,12 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="P7" s="22"/>
-    </row>
-    <row r="8" spans="2:19" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="P7" s="22" t="b">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="5" t="s">
         <v>5</v>
       </c>
@@ -1420,9 +1433,12 @@
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="P8" s="22"/>
-    </row>
-    <row r="9" spans="2:19" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="P8" s="22" t="b">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="5" t="s">
         <v>6</v>
       </c>
@@ -1475,9 +1491,12 @@
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="P9" s="22"/>
-    </row>
-    <row r="10" spans="2:19" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="P9" s="22" t="b">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="5" t="s">
         <v>7</v>
       </c>
@@ -1530,9 +1549,12 @@
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="P10" s="22"/>
-    </row>
-    <row r="11" spans="2:19" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="P10" s="22" t="b">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="5" t="s">
         <v>8</v>
       </c>
@@ -1585,9 +1607,12 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="P11" s="22"/>
-    </row>
-    <row r="12" spans="2:19" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="P11" s="22" t="b">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="15" t="s">
         <v>9</v>
       </c>
@@ -1640,33 +1665,63 @@
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="P12" s="22"/>
-    </row>
-    <row r="13" spans="2:19" ht="14.7" thickTop="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="P12" s="22" t="b">
+        <f>AND(L12,M12)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="2:19" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B13" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="C13" s="19"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="30"/>
-    </row>
-    <row r="14" spans="2:19" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="C13" s="1">
+        <f>(C3+C4+C5+C6+C7+C8+C9+C10+C11+C12)/10</f>
+        <v>5.3</v>
+      </c>
+      <c r="D13" s="1">
+        <f t="shared" ref="D13:E13" si="11">(D3+D4+D5+D6+D7+D8+D9+D10+D11+D12)/10</f>
+        <v>119000</v>
+      </c>
+      <c r="E13" s="1">
+        <f t="shared" si="11"/>
+        <v>10400</v>
+      </c>
+    </row>
+    <row r="14" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="C14" s="20"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="32"/>
-    </row>
-    <row r="15" spans="2:19" ht="14.7" thickTop="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="C14" s="20">
+        <f>AVERAGE(C3:C12)</f>
+        <v>5.3</v>
+      </c>
+      <c r="D14" s="20">
+        <f t="shared" ref="D14:E14" si="12">AVERAGE(D3:D12)</f>
+        <v>119000</v>
+      </c>
+      <c r="E14" s="20">
+        <f t="shared" si="12"/>
+        <v>10400</v>
+      </c>
+    </row>
+    <row r="15" spans="2:19" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B15" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="C15" s="19"/>
-      <c r="D15" s="19"/>
-      <c r="E15" s="30"/>
-    </row>
-    <row r="16" spans="2:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="C15" s="19">
+        <f>COUNT(C3:C12)</f>
+        <v>10</v>
+      </c>
+      <c r="D15" s="19">
+        <f t="shared" ref="D15:E15" si="13">COUNT(D3:D12)</f>
+        <v>10</v>
+      </c>
+      <c r="E15" s="19">
+        <f t="shared" si="13"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B16" s="33" t="s">
         <v>31</v>
       </c>
@@ -1674,15 +1729,22 @@
       <c r="D16" s="18"/>
       <c r="E16" s="34"/>
     </row>
-    <row r="17" spans="2:5" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="17" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="C17" s="35"/>
-      <c r="D17" s="35"/>
+      <c r="C17" s="35">
+        <f>COUNTIF(C3:C12,"&lt;="&amp;S3)</f>
+        <v>6</v>
+      </c>
+      <c r="D17" s="35">
+        <f>COUNTIF(D3:D12,"&gt;="&amp;S4)</f>
+        <v>9</v>
+      </c>
       <c r="E17" s="36"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1692,35 +1754,35 @@
   <dimension ref="B1:S17"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.15625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="22.68359375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.41796875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="12.26171875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.578125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="10.578125" style="1" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="5.125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="22.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="12.25" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="10.625" style="1" hidden="1" customWidth="1"/>
     <col min="7" max="7" width="9" style="1" hidden="1" customWidth="1"/>
     <col min="8" max="9" width="11" style="1" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="17.26171875" style="1" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="14.26171875" style="1" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="10.15625" style="1" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="17.25" style="1" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="14.25" style="1" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="10.125" style="1" hidden="1" customWidth="1"/>
     <col min="13" max="13" width="9" style="1" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="10.41796875" style="1" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="14.15625" style="1" customWidth="1"/>
-    <col min="16" max="16" width="11.83984375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="10.375" style="1" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="14.125" style="1" customWidth="1"/>
+    <col min="16" max="16" width="11.875" style="1" customWidth="1"/>
     <col min="17" max="17" width="9" style="1"/>
     <col min="18" max="18" width="14" style="1" bestFit="1" customWidth="1"/>
     <col min="19" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:19" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="1" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G1" s="28"/>
     </row>
-    <row r="2" spans="2:19" s="8" customFormat="1" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="2" spans="2:19" s="8" customFormat="1" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>10</v>
       </c>
@@ -1771,7 +1833,7 @@
       </c>
       <c r="S2" s="1"/>
     </row>
-    <row r="3" spans="2:19" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="3" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="5" t="s">
         <v>0</v>
       </c>
@@ -1835,7 +1897,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="2:19" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="4" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="5" t="s">
         <v>1</v>
       </c>
@@ -1899,7 +1961,7 @@
         <v>90000</v>
       </c>
     </row>
-    <row r="5" spans="2:19" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="5" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="5" t="s">
         <v>2</v>
       </c>
@@ -1957,7 +2019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="2:19" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="6" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -2015,7 +2077,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="2:19" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="7" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="5" t="s">
         <v>4</v>
       </c>
@@ -2073,7 +2135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="2:19" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="8" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="5" t="s">
         <v>5</v>
       </c>
@@ -2131,7 +2193,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="2:19" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="9" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="5" t="s">
         <v>6</v>
       </c>
@@ -2189,7 +2251,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="2:19" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="10" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="5" t="s">
         <v>7</v>
       </c>
@@ -2247,7 +2309,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="2:19" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="11" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="5" t="s">
         <v>8</v>
       </c>
@@ -2305,7 +2367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:19" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="12" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="15" t="s">
         <v>9</v>
       </c>
@@ -2363,7 +2425,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="2:19" ht="14.7" thickTop="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="2:19" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B13" s="29" t="s">
         <v>27</v>
       </c>
@@ -2380,7 +2442,7 @@
         <v>10400</v>
       </c>
     </row>
-    <row r="14" spans="2:19" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="14" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="31" t="s">
         <v>28</v>
       </c>
@@ -2401,7 +2463,7 @@
         <v>5.3</v>
       </c>
     </row>
-    <row r="15" spans="2:19" ht="14.7" thickTop="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="2:19" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B15" s="29" t="s">
         <v>30</v>
       </c>
@@ -2418,7 +2480,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="2:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B16" s="33" t="s">
         <v>31</v>
       </c>
@@ -2432,7 +2494,7 @@
       </c>
       <c r="E16" s="34"/>
     </row>
-    <row r="17" spans="2:5" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="17" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="12" t="s">
         <v>31</v>
       </c>
@@ -2447,6 +2509,7 @@
       <c r="E17" s="36"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2455,19 +2518,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08EBE098-CD97-45AE-AE7E-86DF2D94E426}">
   <dimension ref="B2:D9"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2.1015625" customWidth="1"/>
-    <col min="2" max="2" width="13.41796875" customWidth="1"/>
-    <col min="3" max="3" width="31.41796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="60.41796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.125" customWidth="1"/>
+    <col min="2" max="2" width="13.375" customWidth="1"/>
+    <col min="3" max="3" width="31.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="60.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B2" s="37" t="s">
         <v>32</v>
       </c>
@@ -2478,91 +2541,92 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B3" s="38" t="e">
         <f>1/0</f>
         <v>#DIV/0!</v>
       </c>
       <c r="C3" s="39" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="D3" s="38" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B4" s="38" t="e">
         <f>A4 + "text"</f>
         <v>#VALUE!</v>
       </c>
       <c r="C4" s="39" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D4" s="38" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B5" s="9" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
       <c r="C5" s="39" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="D5" s="38" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B6" s="9" t="e" cm="1">
         <f t="array" aca="1" ref="B6" ca="1">COUNTT(A3:A9)</f>
         <v>#NAME?</v>
       </c>
       <c r="C6" s="39" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D6" s="38" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B7" s="38" t="e">
         <f>VLOOKUP("Value", A1:A10, 2, FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="C7" s="39" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D7" s="38" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B8" s="38" t="e">
         <f>SQRT(-1)</f>
         <v>#NUM!</v>
       </c>
       <c r="C8" s="39" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D8" s="38" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B9" s="38" t="e">
         <f>SUM(A1:A10 C1:C10)</f>
         <v>#NULL!</v>
       </c>
       <c r="C9" s="39" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D9" s="38" t="s">
         <v>39</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>